--- a/biology/Médecine/Renée_Marceau/Renée_Marceau.xlsx
+++ b/biology/Médecine/Renée_Marceau/Renée_Marceau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Marceau</t>
+          <t>Renée_Marceau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Renée Marceau, née le 10 août 1913 à Dammarie-les-Lys (Seine-et-Marne) et morte à la fin des années 1990, probablement en Russie, est une militante communiste qui serait devenue agent des services secrets soviétiques à Moscou[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renée Marceau, née le 10 août 1913 à Dammarie-les-Lys (Seine-et-Marne) et morte à la fin des années 1990, probablement en Russie, est une militante communiste qui serait devenue agent des services secrets soviétiques à Moscou.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Marceau</t>
+          <t>Renée_Marceau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Renée Marceau naît le 10 août 1913 à Dammarie-les-Lys (Seine-et-Marne)[2].
-Ses parents sont issus d'un milieu paysan. Sa mère, Georgette Frété, est sans profession tandis que son père, Robert Marceau, est plombier. Son père est militant communiste « très actif »[2] et quitte la famille alors qu'elle est enfant[1].
-Formation
-Renée Marceau étudie au lycée Racine à Paris[1].
-Elle vit à Stains et fait des études de médecine au cours desquelles elle rejoint les jeunesses communistes[2]. 
-Engagement militant
-En 1932, Renée Marceau est accusée d'avoir été en relation avec un agent soviétique condamné pour espionnage l'année suivante[2].
-Pour sa tentative d'elimination du général Franco en 1936, elle est décorée de l'ordre de Lénine[1].
-Par la suite, elle est cardiologue à Moscou et redevient française le 20 mars 1992 dans les suites de la chute de l’URSS[1].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renée Marceau naît le 10 août 1913 à Dammarie-les-Lys (Seine-et-Marne).
+Ses parents sont issus d'un milieu paysan. Sa mère, Georgette Frété, est sans profession tandis que son père, Robert Marceau, est plombier. Son père est militant communiste « très actif » et quitte la famille alors qu'elle est enfant.
 </t>
         </is>
       </c>
@@ -533,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Marceau</t>
+          <t>Renée_Marceau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +558,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renée Marceau étudie au lycée Racine à Paris.
+Elle vit à Stains et fait des études de médecine au cours desquelles elle rejoint les jeunesses communistes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Renée_Marceau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Marceau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Engagement militant</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1932, Renée Marceau est accusée d'avoir été en relation avec un agent soviétique condamné pour espionnage l'année suivante.
+Pour sa tentative d'elimination du général Franco en 1936, elle est décorée de l'ordre de Lénine.
+Par la suite, elle est cardiologue à Moscou et redevient française le 20 mars 1992 dans les suites de la chute de l’URSS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renée_Marceau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Marceau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ursula Kuczynski, espionne allemande, la cite dans ses mémoires[1],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ursula Kuczynski, espionne allemande, la cite dans ses mémoires,.
 </t>
         </is>
       </c>
